--- a/110_Analyses_Données/Ex_7.xlsx
+++ b/110_Analyses_Données/Ex_7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intra\Documents\EPSIC\110_Analyses_Données\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2EF273-4564-425A-947B-8E173B9A24BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B738D05B-6A0A-41B9-BE27-96D56C5D3C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{59834A21-9A7F-4041-87B3-0EEA74DAC5AD}"/>
   </bookViews>
@@ -111,9 +111,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -121,7 +119,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -311,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -347,21 +344,23 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +679,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +687,7 @@
     <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -707,7 +706,7 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -730,7 +729,7 @@
       <c r="F2" s="2">
         <v>79</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="16">
         <f>SUM(C2:F2)/4</f>
         <v>148.25</v>
       </c>
@@ -754,7 +753,7 @@
       <c r="F3" s="3">
         <v>30</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="16">
         <f t="shared" ref="G3:G9" si="0">SUM(C3:F3)/4</f>
         <v>50</v>
       </c>
@@ -767,19 +766,19 @@
         <f>B3/B2</f>
         <v>0.5</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <f t="shared" ref="C4:F4" si="1">C3/C2</f>
         <v>0.51063829787234039</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="13">
         <f t="shared" si="1"/>
         <v>0.29710144927536231</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <f t="shared" si="1"/>
         <v>0.28723404255319152</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <f t="shared" si="1"/>
         <v>0.379746835443038</v>
       </c>
@@ -796,23 +795,23 @@
         <f>B3/8</f>
         <v>9.375</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="14">
         <f t="shared" ref="C5:F5" si="2">C3/8</f>
         <v>6</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="14">
         <f t="shared" si="2"/>
         <v>5.125</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <f t="shared" si="2"/>
         <v>10.125</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>6.25</v>
       </c>
@@ -826,7 +825,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -847,7 +846,7 @@
       <c r="F7" s="3">
         <v>14</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
@@ -871,7 +870,7 @@
       <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="16">
         <f t="shared" si="0"/>
         <v>11.75</v>
       </c>
@@ -895,12 +894,96 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="16">
         <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:G2">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:G3">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:G4">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:G5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:G7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:G8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:G9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>